--- a/resources/app/School_Data_Beta.xlsx
+++ b/resources/app/School_Data_Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\NCAA-PS2-Scheduler-UI\resources\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4073E90-5C34-4AED-B26D-FAF64AD0900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1A6B4-0AF9-41FB-827E-6CBE868F84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27045" yWindow="795" windowWidth="23535" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25245" yWindow="2160" windowWidth="29340" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="717">
   <si>
     <t>TGID</t>
   </si>
@@ -2097,12 +2097,6 @@
     <t>Golden Panthers</t>
   </si>
   <si>
-    <t>1AA Northwest</t>
-  </si>
-  <si>
-    <t>1AANW</t>
-  </si>
-  <si>
     <t>Liberty</t>
   </si>
   <si>
@@ -2176,6 +2170,15 @@
   </si>
   <si>
     <t>#046A38</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>#0039A6</t>
+  </si>
+  <si>
+    <t>https://teamcolorcodes.com/wp-content/uploads/2018/08/georgia_state_panthers_logo_colors.png</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2368,6 +2371,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2686,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13392,7 +13398,7 @@
         <v>160</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>675</v>
@@ -13404,10 +13410,10 @@
         <v>348</v>
       </c>
       <c r="F146" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="G146" s="18" t="s">
         <v>701</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>703</v>
       </c>
       <c r="H146" s="17" t="s">
         <v>390</v>
@@ -13463,25 +13469,25 @@
         <v>161</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D147" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
@@ -13534,16 +13540,26 @@
         <v>162</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>446</v>
+      </c>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
@@ -13595,22 +13611,22 @@
         <v>163</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F149" s="17" t="s">
         <v>91</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H149" s="17" t="s">
         <v>612</v>
@@ -13666,10 +13682,10 @@
         <v>164</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>36</v>
@@ -13678,10 +13694,10 @@
         <v>40</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
@@ -13812,25 +13828,25 @@
         <v>178</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
@@ -14175,22 +14191,22 @@
         <v>183</v>
       </c>
       <c r="B157" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F157" s="17" t="s">
         <v>569</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>129</v>
@@ -14781,7 +14797,9 @@
       <c r="H165" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="I165" s="20"/>
+      <c r="I165" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="J165" s="19"/>
       <c r="K165" s="19"/>
       <c r="L165" s="21"/>
@@ -38028,8 +38046,9 @@
     <hyperlink ref="G150" r:id="rId138" xr:uid="{70367677-2DF0-4569-AEC8-F616878383E4}"/>
     <hyperlink ref="G149" r:id="rId139" xr:uid="{8F2DD586-FDD8-4BE0-82D0-43D38E8E9307}"/>
     <hyperlink ref="G157" r:id="rId140" xr:uid="{82004316-3D12-443D-83CC-C3AC32C575F0}"/>
+    <hyperlink ref="G148" r:id="rId141" xr:uid="{009FCA50-A615-4287-B183-6E79B5C40ADB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId141"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId142"/>
 </worksheet>
 </file>